--- a/application_data_condensed_student_applicants_df.xlsx
+++ b/application_data_condensed_student_applicants_df.xlsx
@@ -232,7 +232,7 @@
     <t>Transport: type 2</t>
   </si>
   <si>
-    <t>Low Risk</t>
+    <t>Medium Risk</t>
   </si>
 </sst>
 </file>

--- a/application_data_condensed_student_applicants_df.xlsx
+++ b/application_data_condensed_student_applicants_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="75">
   <si>
     <t>SK_ID_CURR</t>
   </si>
@@ -85,6 +85,9 @@
     <t>ORGANIZATION_TYPE</t>
   </si>
   <si>
+    <t>WEEKEND_APPR_PROCESS_START</t>
+  </si>
+  <si>
     <t>FRAUD_RISK</t>
   </si>
   <si>
@@ -178,58 +181,61 @@
     <t>WEDNESDAY</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>FRIDAY</t>
+  </si>
+  <si>
+    <t>TUESDAY</t>
+  </si>
+  <si>
+    <t>Business Entity Type 2</t>
+  </si>
+  <si>
+    <t>Medicine</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Business Entity Type 3</t>
+  </si>
+  <si>
+    <t>Business Entity Type 1</t>
+  </si>
+  <si>
+    <t>Trade: type 6</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Industry: type 4</t>
+  </si>
+  <si>
+    <t>Industry: type 11</t>
+  </si>
+  <si>
+    <t>University</t>
+  </si>
+  <si>
+    <t>Transport: type 2</t>
+  </si>
+  <si>
     <t>SUNDAY</t>
   </si>
   <si>
     <t>SATURDAY</t>
-  </si>
-  <si>
-    <t>FRIDAY</t>
-  </si>
-  <si>
-    <t>TUESDAY</t>
-  </si>
-  <si>
-    <t>Business Entity Type 2</t>
-  </si>
-  <si>
-    <t>Medicine</t>
-  </si>
-  <si>
-    <t>Electricity</t>
-  </si>
-  <si>
-    <t>Business Entity Type 3</t>
-  </si>
-  <si>
-    <t>Business Entity Type 1</t>
-  </si>
-  <si>
-    <t>Trade: type 6</t>
-  </si>
-  <si>
-    <t>School</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Government</t>
-  </si>
-  <si>
-    <t>Bank</t>
-  </si>
-  <si>
-    <t>Industry: type 4</t>
-  </si>
-  <si>
-    <t>Industry: type 11</t>
-  </si>
-  <si>
-    <t>University</t>
-  </si>
-  <si>
-    <t>Transport: type 2</t>
   </si>
   <si>
     <t>Medium Risk</t>
@@ -590,13 +596,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X19"/>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -669,22 +675,25 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:25">
       <c r="A2">
         <v>111963</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -702,22 +711,22 @@
         <v>468000</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R2">
         <v>2</v>
@@ -729,7 +738,7 @@
         <v>2</v>
       </c>
       <c r="U2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V2">
         <v>13</v>
@@ -738,24 +747,27 @@
         <v>58</v>
       </c>
       <c r="X2" t="s">
-        <v>72</v>
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:25">
       <c r="A3">
         <v>119612</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -773,19 +785,19 @@
         <v>315000</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -797,7 +809,7 @@
         <v>2</v>
       </c>
       <c r="U3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V3">
         <v>10</v>
@@ -806,24 +818,27 @@
         <v>58</v>
       </c>
       <c r="X3" t="s">
-        <v>72</v>
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:25">
       <c r="A4">
         <v>149408</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -841,22 +856,22 @@
         <v>238500</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R4">
         <v>2</v>
@@ -868,7 +883,7 @@
         <v>1</v>
       </c>
       <c r="U4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V4">
         <v>13</v>
@@ -877,24 +892,27 @@
         <v>59</v>
       </c>
       <c r="X4" t="s">
-        <v>72</v>
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:25">
       <c r="A5">
         <v>156534</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
         <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -912,25 +930,25 @@
         <v>90000</v>
       </c>
       <c r="K5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P5">
         <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R5">
         <v>3</v>
@@ -942,7 +960,7 @@
         <v>2</v>
       </c>
       <c r="U5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V5">
         <v>15</v>
@@ -953,22 +971,25 @@
       <c r="X5" t="s">
         <v>72</v>
       </c>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:25">
       <c r="A6">
         <v>157780</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -986,25 +1007,25 @@
         <v>1206000</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P6">
         <v>11</v>
       </c>
       <c r="Q6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R6">
         <v>4</v>
@@ -1016,7 +1037,7 @@
         <v>2</v>
       </c>
       <c r="U6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V6">
         <v>10</v>
@@ -1025,24 +1046,27 @@
         <v>61</v>
       </c>
       <c r="X6" t="s">
-        <v>72</v>
+        <v>55</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:25">
       <c r="A7">
         <v>167346</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1060,22 +1084,22 @@
         <v>238500</v>
       </c>
       <c r="K7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R7">
         <v>3</v>
@@ -1087,7 +1111,7 @@
         <v>2</v>
       </c>
       <c r="U7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V7">
         <v>15</v>
@@ -1096,24 +1120,27 @@
         <v>62</v>
       </c>
       <c r="X7" t="s">
-        <v>72</v>
+        <v>55</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:25">
       <c r="A8">
         <v>170882</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1131,22 +1158,22 @@
         <v>585000</v>
       </c>
       <c r="K8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R8">
         <v>3</v>
@@ -1158,7 +1185,7 @@
         <v>1</v>
       </c>
       <c r="U8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V8">
         <v>15</v>
@@ -1167,24 +1194,27 @@
         <v>63</v>
       </c>
       <c r="X8" t="s">
-        <v>72</v>
+        <v>55</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:25">
       <c r="A9">
         <v>181167</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1202,22 +1232,22 @@
         <v>675000</v>
       </c>
       <c r="K9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R9">
         <v>1</v>
@@ -1238,24 +1268,27 @@
         <v>59</v>
       </c>
       <c r="X9" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:25">
       <c r="A10">
         <v>203919</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1273,22 +1306,22 @@
         <v>495000</v>
       </c>
       <c r="K10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R10">
         <v>2</v>
@@ -1309,24 +1342,27 @@
         <v>64</v>
       </c>
       <c r="X10" t="s">
-        <v>72</v>
+        <v>55</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:25">
       <c r="A11">
         <v>221688</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1344,22 +1380,22 @@
         <v>661500</v>
       </c>
       <c r="K11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R11">
         <v>2</v>
@@ -1371,7 +1407,7 @@
         <v>2</v>
       </c>
       <c r="U11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V11">
         <v>11</v>
@@ -1380,24 +1416,27 @@
         <v>65</v>
       </c>
       <c r="X11" t="s">
-        <v>72</v>
+        <v>55</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:25">
       <c r="A12">
         <v>309635</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1415,22 +1454,22 @@
         <v>180000</v>
       </c>
       <c r="K12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R12">
         <v>2</v>
@@ -1451,24 +1490,27 @@
         <v>66</v>
       </c>
       <c r="X12" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:25">
       <c r="A13">
         <v>316731</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
         <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>28</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1486,25 +1528,25 @@
         <v>450000</v>
       </c>
       <c r="K13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P13">
         <v>7</v>
       </c>
       <c r="Q13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R13">
         <v>1</v>
@@ -1516,7 +1558,7 @@
         <v>2</v>
       </c>
       <c r="U13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V13">
         <v>13</v>
@@ -1525,24 +1567,27 @@
         <v>61</v>
       </c>
       <c r="X13" t="s">
-        <v>72</v>
+        <v>55</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:25">
       <c r="A14">
         <v>331123</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1560,22 +1605,22 @@
         <v>450000</v>
       </c>
       <c r="K14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R14">
         <v>1</v>
@@ -1587,7 +1632,7 @@
         <v>1</v>
       </c>
       <c r="U14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V14">
         <v>15</v>
@@ -1596,24 +1641,27 @@
         <v>67</v>
       </c>
       <c r="X14" t="s">
-        <v>72</v>
+        <v>55</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:25">
       <c r="A15">
         <v>342952</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1631,22 +1679,22 @@
         <v>540000</v>
       </c>
       <c r="K15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R15">
         <v>4</v>
@@ -1658,7 +1706,7 @@
         <v>2</v>
       </c>
       <c r="U15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V15">
         <v>14</v>
@@ -1667,24 +1715,27 @@
         <v>61</v>
       </c>
       <c r="X15" t="s">
-        <v>72</v>
+        <v>55</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:25">
       <c r="A16">
         <v>402085</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1702,19 +1753,19 @@
         <v>180000</v>
       </c>
       <c r="K16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R16">
         <v>3</v>
@@ -1735,24 +1786,27 @@
         <v>68</v>
       </c>
       <c r="X16" t="s">
-        <v>72</v>
+        <v>55</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:25">
       <c r="A17">
         <v>405252</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1770,16 +1824,16 @@
         <v>648000</v>
       </c>
       <c r="L17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R17">
         <v>4</v>
@@ -1800,24 +1854,27 @@
         <v>69</v>
       </c>
       <c r="X17" t="s">
-        <v>72</v>
+        <v>55</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:25">
       <c r="A18">
         <v>434942</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1835,19 +1892,19 @@
         <v>454500</v>
       </c>
       <c r="K18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P18">
         <v>3</v>
@@ -1871,24 +1928,27 @@
         <v>70</v>
       </c>
       <c r="X18" t="s">
-        <v>72</v>
+        <v>55</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:25">
       <c r="A19">
         <v>449187</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1906,19 +1966,19 @@
         <v>373500</v>
       </c>
       <c r="K19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P19">
         <v>12</v>
@@ -1942,7 +2002,10 @@
         <v>71</v>
       </c>
       <c r="X19" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/application_data_condensed_student_applicants_df.xlsx
+++ b/application_data_condensed_student_applicants_df.xlsx
@@ -181,7 +181,7 @@
     <t>WEDNESDAY</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t>-</t>
   </si>
   <si>
     <t>FRIDAY</t>

--- a/application_data_condensed_student_applicants_df.xlsx
+++ b/application_data_condensed_student_applicants_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="85">
   <si>
     <t>SK_ID_CURR</t>
   </si>
@@ -188,6 +188,36 @@
   </si>
   <si>
     <t>TUESDAY</t>
+  </si>
+  <si>
+    <t>13:00:00</t>
+  </si>
+  <si>
+    <t>10:00:00</t>
+  </si>
+  <si>
+    <t>15:00:00</t>
+  </si>
+  <si>
+    <t>14:00:00</t>
+  </si>
+  <si>
+    <t>9:00:00</t>
+  </si>
+  <si>
+    <t>11:00:00</t>
+  </si>
+  <si>
+    <t>6:00:00</t>
+  </si>
+  <si>
+    <t>7:00:00</t>
+  </si>
+  <si>
+    <t>12:00:00</t>
+  </si>
+  <si>
+    <t>8:00:00</t>
   </si>
   <si>
     <t>Business Entity Type 2</t>
@@ -740,17 +770,17 @@
       <c r="U2" t="s">
         <v>53</v>
       </c>
-      <c r="V2">
-        <v>13</v>
+      <c r="V2" t="s">
+        <v>58</v>
       </c>
       <c r="W2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="X2" t="s">
         <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -811,17 +841,17 @@
       <c r="U3" t="s">
         <v>53</v>
       </c>
-      <c r="V3">
-        <v>10</v>
+      <c r="V3" t="s">
+        <v>59</v>
       </c>
       <c r="W3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="X3" t="s">
         <v>55</v>
       </c>
       <c r="Y3" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -885,17 +915,17 @@
       <c r="U4" t="s">
         <v>54</v>
       </c>
-      <c r="V4">
-        <v>13</v>
+      <c r="V4" t="s">
+        <v>58</v>
       </c>
       <c r="W4" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="X4" t="s">
         <v>55</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -962,17 +992,17 @@
       <c r="U5" t="s">
         <v>55</v>
       </c>
-      <c r="V5">
-        <v>15</v>
+      <c r="V5" t="s">
+        <v>60</v>
       </c>
       <c r="W5" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="X5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1039,17 +1069,17 @@
       <c r="U6" t="s">
         <v>53</v>
       </c>
-      <c r="V6">
-        <v>10</v>
+      <c r="V6" t="s">
+        <v>59</v>
       </c>
       <c r="W6" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="X6" t="s">
         <v>55</v>
       </c>
       <c r="Y6" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1113,17 +1143,17 @@
       <c r="U7" t="s">
         <v>54</v>
       </c>
-      <c r="V7">
-        <v>15</v>
+      <c r="V7" t="s">
+        <v>60</v>
       </c>
       <c r="W7" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="X7" t="s">
         <v>55</v>
       </c>
       <c r="Y7" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1187,17 +1217,17 @@
       <c r="U8" t="s">
         <v>53</v>
       </c>
-      <c r="V8">
-        <v>15</v>
+      <c r="V8" t="s">
+        <v>60</v>
       </c>
       <c r="W8" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="X8" t="s">
         <v>55</v>
       </c>
       <c r="Y8" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1261,17 +1291,17 @@
       <c r="U9" t="s">
         <v>55</v>
       </c>
-      <c r="V9">
-        <v>14</v>
+      <c r="V9" t="s">
+        <v>61</v>
       </c>
       <c r="W9" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="X9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="Y9" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1335,17 +1365,17 @@
       <c r="U10" t="s">
         <v>56</v>
       </c>
-      <c r="V10">
-        <v>9</v>
+      <c r="V10" t="s">
+        <v>62</v>
       </c>
       <c r="W10" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="X10" t="s">
         <v>55</v>
       </c>
       <c r="Y10" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1409,17 +1439,17 @@
       <c r="U11" t="s">
         <v>53</v>
       </c>
-      <c r="V11">
-        <v>11</v>
+      <c r="V11" t="s">
+        <v>63</v>
       </c>
       <c r="W11" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="X11" t="s">
         <v>55</v>
       </c>
       <c r="Y11" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1483,17 +1513,17 @@
       <c r="U12" t="s">
         <v>55</v>
       </c>
-      <c r="V12">
-        <v>6</v>
+      <c r="V12" t="s">
+        <v>64</v>
       </c>
       <c r="W12" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="X12" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="Y12" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1560,17 +1590,17 @@
       <c r="U13" t="s">
         <v>54</v>
       </c>
-      <c r="V13">
-        <v>13</v>
+      <c r="V13" t="s">
+        <v>58</v>
       </c>
       <c r="W13" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="X13" t="s">
         <v>55</v>
       </c>
       <c r="Y13" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1634,17 +1664,17 @@
       <c r="U14" t="s">
         <v>54</v>
       </c>
-      <c r="V14">
-        <v>15</v>
+      <c r="V14" t="s">
+        <v>60</v>
       </c>
       <c r="W14" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="X14" t="s">
         <v>55</v>
       </c>
       <c r="Y14" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1708,17 +1738,17 @@
       <c r="U15" t="s">
         <v>54</v>
       </c>
-      <c r="V15">
-        <v>14</v>
+      <c r="V15" t="s">
+        <v>61</v>
       </c>
       <c r="W15" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="X15" t="s">
         <v>55</v>
       </c>
       <c r="Y15" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1779,17 +1809,17 @@
       <c r="U16" t="s">
         <v>57</v>
       </c>
-      <c r="V16">
-        <v>7</v>
+      <c r="V16" t="s">
+        <v>65</v>
       </c>
       <c r="W16" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="X16" t="s">
         <v>55</v>
       </c>
       <c r="Y16" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -1847,17 +1877,17 @@
       <c r="U17" t="s">
         <v>57</v>
       </c>
-      <c r="V17">
-        <v>12</v>
+      <c r="V17" t="s">
+        <v>66</v>
       </c>
       <c r="W17" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s">
         <v>55</v>
       </c>
       <c r="Y17" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -1921,17 +1951,17 @@
       <c r="U18" t="s">
         <v>56</v>
       </c>
-      <c r="V18">
-        <v>12</v>
+      <c r="V18" t="s">
+        <v>66</v>
       </c>
       <c r="W18" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="X18" t="s">
         <v>55</v>
       </c>
       <c r="Y18" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -1995,17 +2025,17 @@
       <c r="U19" t="s">
         <v>55</v>
       </c>
-      <c r="V19">
-        <v>8</v>
+      <c r="V19" t="s">
+        <v>67</v>
       </c>
       <c r="W19" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="X19" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="Y19" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/application_data_condensed_student_applicants_df.xlsx
+++ b/application_data_condensed_student_applicants_df.xlsx
@@ -202,22 +202,22 @@
     <t>14:00:00</t>
   </si>
   <si>
-    <t>9:00:00</t>
+    <t>09:00:00</t>
   </si>
   <si>
     <t>11:00:00</t>
   </si>
   <si>
-    <t>6:00:00</t>
-  </si>
-  <si>
-    <t>7:00:00</t>
+    <t>06:00:00</t>
+  </si>
+  <si>
+    <t>07:00:00</t>
   </si>
   <si>
     <t>12:00:00</t>
   </si>
   <si>
-    <t>8:00:00</t>
+    <t>08:00:00</t>
   </si>
   <si>
     <t>Business Entity Type 2</t>
